--- a/biology/Zoologie/Calyptorhynchini/Calyptorhynchini.xlsx
+++ b/biology/Zoologie/Calyptorhynchini/Calyptorhynchini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calyptorhynchini (les calyptorhynchinis en français) sont une tribu paraphylétique de cacatoès à plumage noirâtre. Ces Cacatoès australiens présentent des plumages globalement sombres (variant du brun, gris ou noir) et des dimorphismes sexuels plus ou moins prononcés au niveau du plumage.
 </t>
@@ -511,12 +523,49 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement, les classifications admettaient la sous-famille des Calyptorhynchinae, une sous-famille des Cacatuidae[1], or les classifications phylogénétiques réduisent la famille des Cacatuidae au rang de sous-famille des Cacatuinae. Dans ces classifications, les Cacatuidae devenant une sous-famille, les Calyptorhynchinae ont été réduits au rang de tribu. Cette sous-famille regroupait les genres Callocephalon (n.) Lesson, 1837 ; Calyptorhynchus Desmarest, 1826 ; Probosciger Kuhl, 1820.
-Le Cacatoès à tête rouge (Callocephalon fimbriatum) est parfois classé avec les cacatuinis (ou cacatuinés sensu stricto)[2].
-Un groupe paraphylétique
-La classification de Brown &amp; Toft parue en 1999 est basée sur une analyse des séquences d'ADN mitochondrial et d'ARN ribosomique 12S permet de préciser d'autres relations. Ainsi, les Calyptorhynchini apparaissent paraphylétiques, Probosciger étant un genre assez éloigné et Nymphicus un genre plus proche de Callocephalon et Calyptorhynchus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement, les classifications admettaient la sous-famille des Calyptorhynchinae, une sous-famille des Cacatuidae, or les classifications phylogénétiques réduisent la famille des Cacatuidae au rang de sous-famille des Cacatuinae. Dans ces classifications, les Cacatuidae devenant une sous-famille, les Calyptorhynchinae ont été réduits au rang de tribu. Cette sous-famille regroupait les genres Callocephalon (n.) Lesson, 1837 ; Calyptorhynchus Desmarest, 1826 ; Probosciger Kuhl, 1820.
+Le Cacatoès à tête rouge (Callocephalon fimbriatum) est parfois classé avec les cacatuinis (ou cacatuinés sensu stricto).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Calyptorhynchini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calyptorhynchini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Position systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Un groupe paraphylétique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de Brown &amp; Toft parue en 1999 est basée sur une analyse des séquences d'ADN mitochondrial et d'ARN ribosomique 12S permet de préciser d'autres relations. Ainsi, les Calyptorhynchini apparaissent paraphylétiques, Probosciger étant un genre assez éloigné et Nymphicus un genre plus proche de Callocephalon et Calyptorhynchus.
 └─oCacatuinae
   ├─o 
   │ ├─o
@@ -534,33 +583,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Calyptorhynchini</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calyptorhynchini</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cacatoès à tête rouge — Callocephalon fimbriatum (J. Grant, 1803)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cacatoès à tête rouge — Callocephalon fimbriatum (J. Grant, 1803)
 Cacatoès noir — Probosciger aterrimus (Gmelin, 1788)
 Probosciger aterrimus aterrimus (Gmelin, 1788)
 Probosciger aterrimus goliath (Kuhl, 1820)
@@ -581,8 +632,43 @@
 Calyptorhynchus funereus whiteae Mathews, 1912
 Calyptorhynchus funereus xanthanotus Gould, 1838
 Cacatoès à rectrices blanches — Calyptorhynchus latirostris Carnaby, 1948
-Cacatoès de Baudin — Calyptorhynchus baudinii Lear, 1832
-Répartition géographique
+Cacatoès de Baudin — Calyptorhynchus baudinii Lear, 1832</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calyptorhynchini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calyptorhynchini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Callocephalon fimbriatum.
 			Calyptorhynchus lathami.
 			Calyptorhynchus funereus.
